--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>Nome</t>
   </si>
@@ -47,16 +47,13 @@
     <t>% de acertos</t>
   </si>
   <si>
-    <t>Elp</t>
-  </si>
-  <si>
-    <t>12/12/2012</t>
-  </si>
-  <si>
-    <t>00:00:11</t>
-  </si>
-  <si>
-    <t>00:00:15</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>00:00:21</t>
+  </si>
+  <si>
+    <t>00:00:12</t>
   </si>
 </sst>
 </file>
@@ -147,10 +144,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,7 +520,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
@@ -537,16 +534,16 @@
       <c r="F3" s="3">
         <v>200</v>
       </c>
-      <c r="G3" s="4">
-        <v>50</v>
+      <c r="G3" s="3">
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="4">
         <v>0.75</v>
       </c>
     </row>
@@ -640,31 +637,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>675</v>
       </c>
-      <c r="E3" s="4">
-        <v>550</v>
-      </c>
-      <c r="F3" s="4">
-        <v>300</v>
-      </c>
-      <c r="G3" s="4">
-        <v>200</v>
+      <c r="E3" s="5">
+        <v>600</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50</v>
+      </c>
+      <c r="G3" s="5">
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
-      <c r="J3" s="5">
-        <v>0.25</v>
+      <c r="J3" s="4">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Nome</t>
   </si>
@@ -47,13 +47,16 @@
     <t>% de acertos</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>00:00:21</t>
-  </si>
-  <si>
-    <t>00:00:12</t>
+    <t>Teste2</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>00:00:11</t>
+  </si>
+  <si>
+    <t>00:00:08</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
@@ -538,13 +541,13 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>500</v>
@@ -649,19 +652,19 @@
         <v>600</v>
       </c>
       <c r="F3" s="5">
+        <v>100</v>
+      </c>
+      <c r="G3" s="5">
         <v>50</v>
       </c>
-      <c r="G3" s="5">
-        <v>15</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -47,16 +47,16 @@
     <t>% de acertos</t>
   </si>
   <si>
-    <t>Teste2</t>
-  </si>
-  <si>
-    <t>12/12/2012</t>
-  </si>
-  <si>
-    <t>00:00:11</t>
-  </si>
-  <si>
-    <t>00:00:08</t>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>HOJE</t>
+  </si>
+  <si>
+    <t>00:00:05</t>
+  </si>
+  <si>
+    <t>00:00:10</t>
   </si>
 </sst>
 </file>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Nome</t>
   </si>
@@ -47,13 +47,34 @@
     <t>% de acertos</t>
   </si>
   <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>HOJE</t>
-  </si>
-  <si>
-    <t>00:00:05</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>02/02/02</t>
+  </si>
+  <si>
+    <t>00:00:23</t>
+  </si>
+  <si>
+    <t>00:00:02</t>
+  </si>
+  <si>
+    <t>Teste2</t>
+  </si>
+  <si>
+    <t>02/02/2004</t>
+  </si>
+  <si>
+    <t>00:00:01</t>
+  </si>
+  <si>
+    <t>00:00:06</t>
+  </si>
+  <si>
+    <t>Trevis</t>
+  </si>
+  <si>
+    <t>00:00:07</t>
   </si>
   <si>
     <t>00:00:10</t>
@@ -147,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,17 +549,17 @@
       <c r="C3" s="3">
         <v>500</v>
       </c>
-      <c r="D3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>750</v>
-      </c>
-      <c r="F3" s="3">
-        <v>200</v>
-      </c>
-      <c r="G3" s="3">
-        <v>100</v>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -546,7 +567,71 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="3">
+        <v>750</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -564,7 +649,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -645,17 +730,17 @@
       <c r="C3" s="3">
         <v>500</v>
       </c>
-      <c r="D3" s="5">
-        <v>675</v>
-      </c>
-      <c r="E3" s="5">
-        <v>600</v>
-      </c>
-      <c r="F3" s="5">
-        <v>100</v>
-      </c>
-      <c r="G3" s="5">
-        <v>50</v>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -663,8 +748,72 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="4">
-        <v>0.5</v>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>500</v>
+      </c>
+      <c r="D5" s="4">
+        <v>675</v>
+      </c>
+      <c r="E5" s="4">
+        <v>600</v>
+      </c>
+      <c r="F5" s="4">
+        <v>50</v>
+      </c>
+      <c r="G5" s="4">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Nome</t>
   </si>
@@ -53,31 +53,10 @@
     <t>02/02/02</t>
   </si>
   <si>
-    <t>00:00:23</t>
+    <t>00:00:00</t>
   </si>
   <si>
     <t>00:00:02</t>
-  </si>
-  <si>
-    <t>Teste2</t>
-  </si>
-  <si>
-    <t>02/02/2004</t>
-  </si>
-  <si>
-    <t>00:00:01</t>
-  </si>
-  <si>
-    <t>00:00:06</t>
-  </si>
-  <si>
-    <t>Trevis</t>
-  </si>
-  <si>
-    <t>00:00:07</t>
-  </si>
-  <si>
-    <t>00:00:10</t>
   </si>
 </sst>
 </file>
@@ -468,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,70 +550,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>500</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>750</v>
-      </c>
-      <c r="F5" s="3">
-        <v>200</v>
-      </c>
-      <c r="G5" s="3">
-        <v>100</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -649,7 +564,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -752,70 +667,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3">
-        <v>500</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3">
-        <v>500</v>
-      </c>
-      <c r="D5" s="4">
-        <v>675</v>
-      </c>
-      <c r="E5" s="4">
-        <v>600</v>
-      </c>
-      <c r="F5" s="4">
-        <v>50</v>
-      </c>
-      <c r="G5" s="4">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
